--- a/NewProbableCasesOverTimeByCounty/2021-02-23.xlsx
+++ b/NewProbableCasesOverTimeByCounty/2021-02-23.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="374">
   <si>
-    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/22/2021 at 9:30 AM CST</t>
+    <t>COVID-19 New Probable Cases by County, 11/1/2020 - 02/23/2021 at 9:30 AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>New Probable 2021-02-22</t>
+  </si>
+  <si>
+    <t>New Probable 2021-02-23</t>
   </si>
   <si>
     <t>Anderson</t>
@@ -1361,6 +1364,7 @@
     <col min="113" max="113" width="12.0" customWidth="true"/>
     <col min="114" max="114" width="12.0" customWidth="true"/>
     <col min="115" max="115" width="12.0" customWidth="true"/>
+    <col min="116" max="116" width="12.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1719,10 +1723,13 @@
       <c r="DK3" t="s" s="10">
         <v>116</v>
       </c>
+      <c r="DL3" t="s" s="10">
+        <v>117</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B4" t="n">
         <v>0.0</v>
@@ -2064,12 +2071,15 @@
         <v>1.0</v>
       </c>
       <c r="DK4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL4" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B5" t="n">
         <v>0.0</v>
@@ -2411,12 +2421,15 @@
         <v>0.0</v>
       </c>
       <c r="DK5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL5" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B6" t="n">
         <v>0.0</v>
@@ -2759,11 +2772,14 @@
       </c>
       <c r="DK6" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL6" t="n">
+        <v>83.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="n">
         <v>0.0</v>
@@ -3105,12 +3121,15 @@
         <v>2.0</v>
       </c>
       <c r="DK7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL7" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="n">
         <v>0.0</v>
@@ -3452,12 +3471,15 @@
         <v>0.0</v>
       </c>
       <c r="DK8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL8" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="n">
         <v>0.0</v>
@@ -3799,12 +3821,15 @@
         <v>0.0</v>
       </c>
       <c r="DK9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL9" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" t="n">
         <v>0.0</v>
@@ -4147,11 +4172,14 @@
       </c>
       <c r="DK10" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL10" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" t="n">
         <v>0.0</v>
@@ -4493,12 +4521,15 @@
         <v>0.0</v>
       </c>
       <c r="DK11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL11" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" t="n">
         <v>0.0</v>
@@ -4841,11 +4872,14 @@
       </c>
       <c r="DK12" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL12" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="n">
         <v>0.0</v>
@@ -5188,11 +5222,14 @@
       </c>
       <c r="DK13" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL13" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="n">
         <v>0.0</v>
@@ -5535,11 +5572,14 @@
       </c>
       <c r="DK14" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL14" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="n">
         <v>0.0</v>
@@ -5881,12 +5921,15 @@
         <v>0.0</v>
       </c>
       <c r="DK15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B16" t="n">
         <v>0.0</v>
@@ -6228,12 +6271,15 @@
         <v>1.0</v>
       </c>
       <c r="DK16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL16" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" t="n">
         <v>0.0</v>
@@ -6575,12 +6621,15 @@
         <v>0.0</v>
       </c>
       <c r="DK17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B18" t="n">
         <v>54.0</v>
@@ -6923,11 +6972,14 @@
       </c>
       <c r="DK18" t="n">
         <v>23.0</v>
+      </c>
+      <c r="DL18" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="n">
         <v>0.0</v>
@@ -7269,12 +7321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL19" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B20" t="n">
         <v>0.0</v>
@@ -7616,12 +7671,15 @@
         <v>0.0</v>
       </c>
       <c r="DK20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL20" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B21" t="n">
         <v>0.0</v>
@@ -7963,12 +8021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B22" t="n">
         <v>0.0</v>
@@ -8311,11 +8372,14 @@
       </c>
       <c r="DK22" t="n">
         <v>7.0</v>
+      </c>
+      <c r="DL22" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B23" t="n">
         <v>0.0</v>
@@ -8658,11 +8722,14 @@
       </c>
       <c r="DK23" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL23" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B24" t="n">
         <v>0.0</v>
@@ -9005,11 +9072,14 @@
       </c>
       <c r="DK24" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>74.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" t="n">
         <v>0.0</v>
@@ -9352,11 +9422,14 @@
       </c>
       <c r="DK25" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DL25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B26" t="n">
         <v>0.0</v>
@@ -9698,12 +9771,15 @@
         <v>0.0</v>
       </c>
       <c r="DK26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL26" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B27" t="n">
         <v>0.0</v>
@@ -10046,11 +10122,14 @@
       </c>
       <c r="DK27" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL27" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B28" t="n">
         <v>0.0</v>
@@ -10392,12 +10471,15 @@
         <v>0.0</v>
       </c>
       <c r="DK28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL28" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B29" t="n">
         <v>0.0</v>
@@ -10739,12 +10821,15 @@
         <v>0.0</v>
       </c>
       <c r="DK29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL29" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B30" t="n">
         <v>0.0</v>
@@ -11087,11 +11172,14 @@
       </c>
       <c r="DK30" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL30" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B31" t="n">
         <v>0.0</v>
@@ -11433,12 +11521,15 @@
         <v>0.0</v>
       </c>
       <c r="DK31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL31" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B32" t="n">
         <v>0.0</v>
@@ -11781,11 +11872,14 @@
       </c>
       <c r="DK32" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL32" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" t="n">
         <v>0.0</v>
@@ -12128,11 +12222,14 @@
       </c>
       <c r="DK33" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL33" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B34" t="n">
         <v>0.0</v>
@@ -12474,12 +12571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL34" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B35" t="n">
         <v>0.0</v>
@@ -12821,12 +12921,15 @@
         <v>1.0</v>
       </c>
       <c r="DK35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL35" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B36" t="n">
         <v>0.0</v>
@@ -13168,12 +13271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL36" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B37" t="n">
         <v>0.0</v>
@@ -13516,11 +13622,14 @@
       </c>
       <c r="DK37" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL37" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B38" t="n">
         <v>0.0</v>
@@ -13862,12 +13971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL38" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B39" t="n">
         <v>0.0</v>
@@ -14209,12 +14321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL39" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B40" t="n">
         <v>0.0</v>
@@ -14557,11 +14672,14 @@
       </c>
       <c r="DK40" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL40" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B41" t="n">
         <v>0.0</v>
@@ -14903,12 +15021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL41" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B42" t="n">
         <v>0.0</v>
@@ -15250,12 +15371,15 @@
         <v>0.0</v>
       </c>
       <c r="DK42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL42" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B43" t="n">
         <v>0.0</v>
@@ -15598,11 +15722,14 @@
       </c>
       <c r="DK43" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL43" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B44" t="n">
         <v>0.0</v>
@@ -15944,12 +16071,15 @@
         <v>-1.0</v>
       </c>
       <c r="DK44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL44" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B45" t="n">
         <v>0.0</v>
@@ -16291,12 +16421,15 @@
         <v>0.0</v>
       </c>
       <c r="DK45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL45" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" t="n">
         <v>30.0</v>
@@ -16639,11 +16772,14 @@
       </c>
       <c r="DK46" t="n">
         <v>39.0</v>
+      </c>
+      <c r="DL46" t="n">
+        <v>186.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B47" t="n">
         <v>0.0</v>
@@ -16985,12 +17121,15 @@
         <v>0.0</v>
       </c>
       <c r="DK47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL47" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B48" t="n">
         <v>0.0</v>
@@ -17333,11 +17472,14 @@
       </c>
       <c r="DK48" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL48" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B49" t="n">
         <v>0.0</v>
@@ -17680,11 +17822,14 @@
       </c>
       <c r="DK49" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL49" t="n">
+        <v>33.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B50" t="n">
         <v>0.0</v>
@@ -18026,12 +18171,15 @@
         <v>0.0</v>
       </c>
       <c r="DK50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL50" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B51" t="n">
         <v>0.0</v>
@@ -18374,11 +18522,14 @@
       </c>
       <c r="DK51" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL51" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B52" t="n">
         <v>0.0</v>
@@ -18720,12 +18871,15 @@
         <v>0.0</v>
       </c>
       <c r="DK52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL52" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B53" t="n">
         <v>0.0</v>
@@ -19068,11 +19222,14 @@
       </c>
       <c r="DK53" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL53" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" t="n">
         <v>0.0</v>
@@ -19414,12 +19571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL54" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B55" t="n">
         <v>0.0</v>
@@ -19762,11 +19922,14 @@
       </c>
       <c r="DK55" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DL55" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B56" t="n">
         <v>0.0</v>
@@ -20108,12 +20271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL56" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B57" t="n">
         <v>0.0</v>
@@ -20456,11 +20622,14 @@
       </c>
       <c r="DK57" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL57" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B58" t="n">
         <v>0.0</v>
@@ -20802,12 +20971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL58" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B59" t="n">
         <v>0.0</v>
@@ -21150,11 +21322,14 @@
       </c>
       <c r="DK59" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL59" t="n">
+        <v>-4.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B60" t="n">
         <v>137.0</v>
@@ -21497,11 +21672,14 @@
       </c>
       <c r="DK60" t="n">
         <v>44.0</v>
+      </c>
+      <c r="DL60" t="n">
+        <v>78.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B61" t="n">
         <v>0.0</v>
@@ -21843,12 +22021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL61" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B62" t="n">
         <v>0.0</v>
@@ -22191,11 +22372,14 @@
       </c>
       <c r="DK62" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL62" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B63" t="n">
         <v>0.0</v>
@@ -22537,12 +22721,15 @@
         <v>0.0</v>
       </c>
       <c r="DK63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL63" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B64" t="n">
         <v>23.0</v>
@@ -22885,11 +23072,14 @@
       </c>
       <c r="DK64" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL64" t="n">
+        <v>472.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B65" t="n">
         <v>0.0</v>
@@ -23231,12 +23421,15 @@
         <v>0.0</v>
       </c>
       <c r="DK65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL65" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B66" t="n">
         <v>0.0</v>
@@ -23579,11 +23772,14 @@
       </c>
       <c r="DK66" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL66" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B67" t="n">
         <v>0.0</v>
@@ -23926,11 +24122,14 @@
       </c>
       <c r="DK67" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL67" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" t="n">
         <v>0.0</v>
@@ -24272,12 +24471,15 @@
         <v>0.0</v>
       </c>
       <c r="DK68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL68" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B69" t="n">
         <v>0.0</v>
@@ -24619,12 +24821,15 @@
         <v>0.0</v>
       </c>
       <c r="DK69" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL69" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B70" t="n">
         <v>0.0</v>
@@ -24966,12 +25171,15 @@
         <v>0.0</v>
       </c>
       <c r="DK70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL70" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B71" t="n">
         <v>0.0</v>
@@ -25314,11 +25522,14 @@
       </c>
       <c r="DK71" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL71" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B72" t="n">
         <v>0.0</v>
@@ -25660,12 +25871,15 @@
         <v>0.0</v>
       </c>
       <c r="DK72" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL72" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B73" t="n">
         <v>0.0</v>
@@ -26008,11 +26222,14 @@
       </c>
       <c r="DK73" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL73" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B74" t="n">
         <v>0.0</v>
@@ -26354,12 +26571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL74" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B75" t="n">
         <v>0.0</v>
@@ -26701,12 +26921,15 @@
         <v>0.0</v>
       </c>
       <c r="DK75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL75" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B76" t="n">
         <v>0.0</v>
@@ -27048,12 +27271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL76" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B77" t="n">
         <v>0.0</v>
@@ -27396,11 +27622,14 @@
       </c>
       <c r="DK77" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL77" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B78" t="n">
         <v>0.0</v>
@@ -27743,11 +27972,14 @@
       </c>
       <c r="DK78" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL78" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B79" t="n">
         <v>0.0</v>
@@ -28089,12 +28321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK79" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL79" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B80" t="n">
         <v>0.0</v>
@@ -28437,11 +28672,14 @@
       </c>
       <c r="DK80" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL80" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B81" t="n">
         <v>0.0</v>
@@ -28783,12 +29021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK81" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL81" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B82" t="n">
         <v>13.0</v>
@@ -29131,11 +29372,14 @@
       </c>
       <c r="DK82" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL82" t="n">
+        <v>85.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B83" t="n">
         <v>0.0</v>
@@ -29477,12 +29721,15 @@
         <v>3.0</v>
       </c>
       <c r="DK83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL83" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B84" t="n">
         <v>0.0</v>
@@ -29825,11 +30072,14 @@
       </c>
       <c r="DK84" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL84" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B85" t="n">
         <v>0.0</v>
@@ -30172,11 +30422,14 @@
       </c>
       <c r="DK85" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL85" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B86" t="n">
         <v>0.0</v>
@@ -30518,12 +30771,15 @@
         <v>0.0</v>
       </c>
       <c r="DK86" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL86" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B87" t="n">
         <v>0.0</v>
@@ -30865,12 +31121,15 @@
         <v>0.0</v>
       </c>
       <c r="DK87" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL87" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88" t="n">
         <v>0.0</v>
@@ -31212,12 +31471,15 @@
         <v>0.0</v>
       </c>
       <c r="DK88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL88" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B89" t="n">
         <v>0.0</v>
@@ -31560,11 +31822,14 @@
       </c>
       <c r="DK89" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL89" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B90" t="n">
         <v>0.0</v>
@@ -31907,11 +32172,14 @@
       </c>
       <c r="DK90" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL90" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B91" t="n">
         <v>0.0</v>
@@ -32253,12 +32521,15 @@
         <v>0.0</v>
       </c>
       <c r="DK91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL91" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B92" t="n">
         <v>0.0</v>
@@ -32601,11 +32872,14 @@
       </c>
       <c r="DK92" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL92" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B93" t="n">
         <v>0.0</v>
@@ -32948,11 +33222,14 @@
       </c>
       <c r="DK93" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL93" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B94" t="n">
         <v>0.0</v>
@@ -33294,12 +33571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL94" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B95" t="n">
         <v>0.0</v>
@@ -33641,12 +33921,15 @@
         <v>2.0</v>
       </c>
       <c r="DK95" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL95" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B96" t="n">
         <v>0.0</v>
@@ -33988,12 +34271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK96" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL96" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B97" t="n">
         <v>0.0</v>
@@ -34336,11 +34622,14 @@
       </c>
       <c r="DK97" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL97" t="n">
+        <v>35.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B98" t="n">
         <v>0.0</v>
@@ -34682,12 +34971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK98" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL98" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B99" t="n">
         <v>0.0</v>
@@ -35029,12 +35321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL99" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B100" t="n">
         <v>0.0</v>
@@ -35376,12 +35671,15 @@
         <v>0.0</v>
       </c>
       <c r="DK100" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL100" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B101" t="n">
         <v>0.0</v>
@@ -35723,12 +36021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL101" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B102" t="n">
         <v>0.0</v>
@@ -36070,12 +36371,15 @@
         <v>0.0</v>
       </c>
       <c r="DK102" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL102" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B103" t="n">
         <v>11.0</v>
@@ -36417,12 +36721,15 @@
         <v>0.0</v>
       </c>
       <c r="DK103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL103" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B104" t="n">
         <v>0.0</v>
@@ -36764,12 +37071,15 @@
         <v>0.0</v>
       </c>
       <c r="DK104" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL104" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B105" t="n">
         <v>0.0</v>
@@ -37111,12 +37421,15 @@
         <v>12.0</v>
       </c>
       <c r="DK105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="DL105" t="n">
         <v>1.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B106" t="n">
         <v>0.0</v>
@@ -37459,11 +37772,14 @@
       </c>
       <c r="DK106" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL106" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B107" t="n">
         <v>0.0</v>
@@ -37806,11 +38122,14 @@
       </c>
       <c r="DK107" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL107" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B108" t="n">
         <v>0.0</v>
@@ -38153,11 +38472,14 @@
       </c>
       <c r="DK108" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL108" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B109" t="n">
         <v>0.0</v>
@@ -38499,12 +38821,15 @@
         <v>0.0</v>
       </c>
       <c r="DK109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL109" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B110" t="n">
         <v>0.0</v>
@@ -38846,12 +39171,15 @@
         <v>7.0</v>
       </c>
       <c r="DK110" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL110" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B111" t="n">
         <v>0.0</v>
@@ -39194,11 +39522,14 @@
       </c>
       <c r="DK111" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL111" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B112" t="n">
         <v>0.0</v>
@@ -39540,12 +39871,15 @@
         <v>0.0</v>
       </c>
       <c r="DK112" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL112" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B113" t="n">
         <v>0.0</v>
@@ -39888,11 +40222,14 @@
       </c>
       <c r="DK113" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL113" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B114" t="n">
         <v>0.0</v>
@@ -40235,11 +40572,14 @@
       </c>
       <c r="DK114" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL114" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B115" t="n">
         <v>0.0</v>
@@ -40582,11 +40922,14 @@
       </c>
       <c r="DK115" t="n">
         <v>4.0</v>
+      </c>
+      <c r="DL115" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B116" t="n">
         <v>0.0</v>
@@ -40928,12 +41271,15 @@
         <v>1.0</v>
       </c>
       <c r="DK116" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL116" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B117" t="n">
         <v>0.0</v>
@@ -41275,12 +41621,15 @@
         <v>2.0</v>
       </c>
       <c r="DK117" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL117" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B118" t="n">
         <v>0.0</v>
@@ -41622,12 +41971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL118" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B119" t="n">
         <v>0.0</v>
@@ -41969,12 +42321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL119" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B120" t="n">
         <v>0.0</v>
@@ -42316,12 +42671,15 @@
         <v>0.0</v>
       </c>
       <c r="DK120" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL120" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B121" t="n">
         <v>0.0</v>
@@ -42664,11 +43022,14 @@
       </c>
       <c r="DK121" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL121" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B122" t="n">
         <v>0.0</v>
@@ -43010,12 +43371,15 @@
         <v>0.0</v>
       </c>
       <c r="DK122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL122" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B123" t="n">
         <v>0.0</v>
@@ -43358,11 +43722,14 @@
       </c>
       <c r="DK123" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL123" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B124" t="n">
         <v>0.0</v>
@@ -43705,11 +44072,14 @@
       </c>
       <c r="DK124" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL124" t="n">
+        <v>12.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B125" t="n">
         <v>0.0</v>
@@ -44052,11 +44422,14 @@
       </c>
       <c r="DK125" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL125" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B126" t="n">
         <v>0.0</v>
@@ -44398,12 +44771,15 @@
         <v>0.0</v>
       </c>
       <c r="DK126" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL126" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B127" t="n">
         <v>0.0</v>
@@ -44745,12 +45121,15 @@
         <v>0.0</v>
       </c>
       <c r="DK127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL127" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B128" t="n">
         <v>0.0</v>
@@ -45093,11 +45472,14 @@
       </c>
       <c r="DK128" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL128" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B129" t="n">
         <v>0.0</v>
@@ -45440,11 +45822,14 @@
       </c>
       <c r="DK129" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL129" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B130" t="n">
         <v>0.0</v>
@@ -45787,11 +46172,14 @@
       </c>
       <c r="DK130" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL130" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B131" t="n">
         <v>0.0</v>
@@ -46134,11 +46522,14 @@
       </c>
       <c r="DK131" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL131" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B132" t="n">
         <v>0.0</v>
@@ -46481,11 +46872,14 @@
       </c>
       <c r="DK132" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL132" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B133" t="n">
         <v>0.0</v>
@@ -46828,11 +47222,14 @@
       </c>
       <c r="DK133" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL133" t="n">
+        <v>21.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B134" t="n">
         <v>0.0</v>
@@ -47174,12 +47571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL134" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B135" t="n">
         <v>0.0</v>
@@ -47521,12 +47921,15 @@
         <v>0.0</v>
       </c>
       <c r="DK135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL135" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B136" t="n">
         <v>0.0</v>
@@ -47869,11 +48272,14 @@
       </c>
       <c r="DK136" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL136" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B137" t="n">
         <v>0.0</v>
@@ -48215,12 +48621,15 @@
         <v>0.0</v>
       </c>
       <c r="DK137" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL137" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B138" t="n">
         <v>0.0</v>
@@ -48562,12 +48971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL138" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B139" t="n">
         <v>0.0</v>
@@ -48910,11 +49322,14 @@
       </c>
       <c r="DK139" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL139" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B140" t="n">
         <v>0.0</v>
@@ -49256,12 +49671,15 @@
         <v>2.0</v>
       </c>
       <c r="DK140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL140" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B141" t="n">
         <v>0.0</v>
@@ -49603,12 +50021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL141" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B142" t="n">
         <v>0.0</v>
@@ -49950,12 +50371,15 @@
         <v>0.0</v>
       </c>
       <c r="DK142" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL142" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B143" t="n">
         <v>7.0</v>
@@ -50298,11 +50722,14 @@
       </c>
       <c r="DK143" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL143" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B144" t="n">
         <v>0.0</v>
@@ -50644,12 +51071,15 @@
         <v>0.0</v>
       </c>
       <c r="DK144" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL144" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B145" t="n">
         <v>0.0</v>
@@ -50992,11 +51422,14 @@
       </c>
       <c r="DK145" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL145" t="n">
+        <v>-135.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B146" t="n">
         <v>0.0</v>
@@ -51339,11 +51772,14 @@
       </c>
       <c r="DK146" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL146" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B147" t="n">
         <v>0.0</v>
@@ -51686,11 +52122,14 @@
       </c>
       <c r="DK147" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL147" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B148" t="n">
         <v>0.0</v>
@@ -52033,11 +52472,14 @@
       </c>
       <c r="DK148" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL148" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B149" t="n">
         <v>1.0</v>
@@ -52379,12 +52821,15 @@
         <v>0.0</v>
       </c>
       <c r="DK149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL149" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B150" t="n">
         <v>0.0</v>
@@ -52727,11 +53172,14 @@
       </c>
       <c r="DK150" t="n">
         <v>5.0</v>
+      </c>
+      <c r="DL150" t="n">
+        <v>-2.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B151" t="n">
         <v>0.0</v>
@@ -53073,12 +53521,15 @@
         <v>0.0</v>
       </c>
       <c r="DK151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL151" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B152" t="n">
         <v>0.0</v>
@@ -53420,12 +53871,15 @@
         <v>0.0</v>
       </c>
       <c r="DK152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL152" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B153" t="n">
         <v>0.0</v>
@@ -53768,11 +54222,14 @@
       </c>
       <c r="DK153" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL153" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B154" t="n">
         <v>0.0</v>
@@ -54114,12 +54571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK154" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL154" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B155" t="n">
         <v>0.0</v>
@@ -54461,12 +54921,15 @@
         <v>0.0</v>
       </c>
       <c r="DK155" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL155" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B156" t="n">
         <v>0.0</v>
@@ -54808,12 +55271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK156" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL156" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B157" t="n">
         <v>0.0</v>
@@ -55156,11 +55622,14 @@
       </c>
       <c r="DK157" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL157" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B158" t="n">
         <v>0.0</v>
@@ -55502,12 +55971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK158" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL158" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B159" t="n">
         <v>0.0</v>
@@ -55849,12 +56321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK159" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL159" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B160" t="n">
         <v>0.0</v>
@@ -56197,11 +56672,14 @@
       </c>
       <c r="DK160" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL160" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B161" t="n">
         <v>0.0</v>
@@ -56543,12 +57021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL161" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B162" t="n">
         <v>0.0</v>
@@ -56890,12 +57371,15 @@
         <v>0.0</v>
       </c>
       <c r="DK162" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL162" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B163" t="n">
         <v>0.0</v>
@@ -57237,12 +57721,15 @@
         <v>0.0</v>
       </c>
       <c r="DK163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL163" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B164" t="n">
         <v>0.0</v>
@@ -57584,12 +58071,15 @@
         <v>9.0</v>
       </c>
       <c r="DK164" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL164" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B165" t="n">
         <v>0.0</v>
@@ -57931,12 +58421,15 @@
         <v>0.0</v>
       </c>
       <c r="DK165" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL165" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B166" t="n">
         <v>0.0</v>
@@ -58279,11 +58772,14 @@
       </c>
       <c r="DK166" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL166" t="n">
+        <v>-35.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B167" t="n">
         <v>0.0</v>
@@ -58625,12 +59121,15 @@
         <v>0.0</v>
       </c>
       <c r="DK167" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL167" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B168" t="n">
         <v>0.0</v>
@@ -58972,12 +59471,15 @@
         <v>0.0</v>
       </c>
       <c r="DK168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL168" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B169" t="n">
         <v>0.0</v>
@@ -59319,12 +59821,15 @@
         <v>0.0</v>
       </c>
       <c r="DK169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL169" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B170" t="n">
         <v>0.0</v>
@@ -59666,12 +60171,15 @@
         <v>0.0</v>
       </c>
       <c r="DK170" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL170" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B171" t="n">
         <v>0.0</v>
@@ -60013,12 +60521,15 @@
         <v>0.0</v>
       </c>
       <c r="DK171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL171" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B172" t="n">
         <v>0.0</v>
@@ -60360,12 +60871,15 @@
         <v>0.0</v>
       </c>
       <c r="DK172" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL172" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B173" t="n">
         <v>0.0</v>
@@ -60708,11 +61222,14 @@
       </c>
       <c r="DK173" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL173" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B174" t="n">
         <v>0.0</v>
@@ -61055,11 +61572,14 @@
       </c>
       <c r="DK174" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL174" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B175" t="n">
         <v>0.0</v>
@@ -61401,12 +61921,15 @@
         <v>2.0</v>
       </c>
       <c r="DK175" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL175" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B176" t="n">
         <v>0.0</v>
@@ -61748,12 +62271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK176" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL176" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B177" t="n">
         <v>0.0</v>
@@ -62096,11 +62622,14 @@
       </c>
       <c r="DK177" t="n">
         <v>3.0</v>
+      </c>
+      <c r="DL177" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B178" t="n">
         <v>0.0</v>
@@ -62442,12 +62971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK178" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL178" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B179" t="n">
         <v>0.0</v>
@@ -62789,12 +63321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK179" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL179" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B180" t="n">
         <v>0.0</v>
@@ -63136,12 +63671,15 @@
         <v>0.0</v>
       </c>
       <c r="DK180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL180" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B181" t="n">
         <v>23.0</v>
@@ -63484,11 +64022,14 @@
       </c>
       <c r="DK181" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DL181" t="n">
+        <v>24.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B182" t="n">
         <v>0.0</v>
@@ -63830,12 +64371,15 @@
         <v>0.0</v>
       </c>
       <c r="DK182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL182" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B183" t="n">
         <v>0.0</v>
@@ -64177,12 +64721,15 @@
         <v>0.0</v>
       </c>
       <c r="DK183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL183" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B184" t="n">
         <v>0.0</v>
@@ -64524,12 +65071,15 @@
         <v>0.0</v>
       </c>
       <c r="DK184" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL184" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B185" t="n">
         <v>0.0</v>
@@ -64872,11 +65422,14 @@
       </c>
       <c r="DK185" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL185" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B186" t="n">
         <v>0.0</v>
@@ -65219,11 +65772,14 @@
       </c>
       <c r="DK186" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL186" t="n">
+        <v>8.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B187" t="n">
         <v>0.0</v>
@@ -65566,11 +66122,14 @@
       </c>
       <c r="DK187" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL187" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B188" t="n">
         <v>0.0</v>
@@ -65912,12 +66471,15 @@
         <v>0.0</v>
       </c>
       <c r="DK188" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL188" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B189" t="n">
         <v>0.0</v>
@@ -66259,12 +66821,15 @@
         <v>1.0</v>
       </c>
       <c r="DK189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL189" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B190" t="n">
         <v>0.0</v>
@@ -66607,11 +67172,14 @@
       </c>
       <c r="DK190" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL190" t="n">
+        <v>36.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B191" t="n">
         <v>0.0</v>
@@ -66953,12 +67521,15 @@
         <v>0.0</v>
       </c>
       <c r="DK191" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL191" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B192" t="n">
         <v>0.0</v>
@@ -67300,12 +67871,15 @@
         <v>0.0</v>
       </c>
       <c r="DK192" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL192" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B193" t="n">
         <v>0.0</v>
@@ -67647,12 +68221,15 @@
         <v>0.0</v>
       </c>
       <c r="DK193" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL193" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B194" t="n">
         <v>0.0</v>
@@ -67994,12 +68571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL194" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B195" t="n">
         <v>0.0</v>
@@ -68341,12 +68921,15 @@
         <v>2.0</v>
       </c>
       <c r="DK195" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL195" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B196" t="n">
         <v>0.0</v>
@@ -68689,11 +69272,14 @@
       </c>
       <c r="DK196" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL196" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B197" t="n">
         <v>0.0</v>
@@ -69036,11 +69622,14 @@
       </c>
       <c r="DK197" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL197" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B198" t="n">
         <v>0.0</v>
@@ -69383,11 +69972,14 @@
       </c>
       <c r="DK198" t="n">
         <v>1.0</v>
+      </c>
+      <c r="DL198" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B199" t="n">
         <v>0.0</v>
@@ -69729,12 +70321,15 @@
         <v>0.0</v>
       </c>
       <c r="DK199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL199" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B200" t="n">
         <v>0.0</v>
@@ -70076,12 +70671,15 @@
         <v>0.0</v>
       </c>
       <c r="DK200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL200" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B201" t="n">
         <v>0.0</v>
@@ -70423,12 +71021,15 @@
         <v>0.0</v>
       </c>
       <c r="DK201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL201" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B202" t="n">
         <v>0.0</v>
@@ -70771,11 +71372,14 @@
       </c>
       <c r="DK202" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL202" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B203" t="n">
         <v>0.0</v>
@@ -71117,12 +71721,15 @@
         <v>0.0</v>
       </c>
       <c r="DK203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL203" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B204" t="n">
         <v>0.0</v>
@@ -71465,11 +72072,14 @@
       </c>
       <c r="DK204" t="n">
         <v>2.0</v>
+      </c>
+      <c r="DL204" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B205" t="n">
         <v>0.0</v>
@@ -71811,12 +72421,15 @@
         <v>0.0</v>
       </c>
       <c r="DK205" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL205" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B206" t="n">
         <v>0.0</v>
@@ -72159,11 +72772,14 @@
       </c>
       <c r="DK206" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL206" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B207" t="n">
         <v>0.0</v>
@@ -72505,12 +73121,15 @@
         <v>0.0</v>
       </c>
       <c r="DK207" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL207" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B208" t="n">
         <v>0.0</v>
@@ -72852,12 +73471,15 @@
         <v>0.0</v>
       </c>
       <c r="DK208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL208" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B209" t="n">
         <v>0.0</v>
@@ -73200,11 +73822,14 @@
       </c>
       <c r="DK209" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL209" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B210" t="n">
         <v>0.0</v>
@@ -73547,11 +74172,14 @@
       </c>
       <c r="DK210" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL210" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B211" t="n">
         <v>0.0</v>
@@ -73893,12 +74521,15 @@
         <v>0.0</v>
       </c>
       <c r="DK211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL211" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B212" t="n">
         <v>0.0</v>
@@ -74240,12 +74871,15 @@
         <v>0.0</v>
       </c>
       <c r="DK212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL212" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B213" t="n">
         <v>1.0</v>
@@ -74588,11 +75222,14 @@
       </c>
       <c r="DK213" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL213" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B214" t="n">
         <v>0.0</v>
@@ -74934,12 +75571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK214" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL214" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B215" t="n">
         <v>0.0</v>
@@ -75281,12 +75921,15 @@
         <v>9.0</v>
       </c>
       <c r="DK215" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL215" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B216" t="n">
         <v>0.0</v>
@@ -75628,12 +76271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK216" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL216" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B217" t="n">
         <v>0.0</v>
@@ -75976,11 +76622,14 @@
       </c>
       <c r="DK217" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL217" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B218" t="n">
         <v>0.0</v>
@@ -76322,12 +76971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK218" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL218" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B219" t="n">
         <v>0.0</v>
@@ -76670,11 +77322,14 @@
       </c>
       <c r="DK219" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL219" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B220" t="n">
         <v>0.0</v>
@@ -77016,12 +77671,15 @@
         <v>0.0</v>
       </c>
       <c r="DK220" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL220" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B221" t="n">
         <v>0.0</v>
@@ -77364,11 +78022,14 @@
       </c>
       <c r="DK221" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL221" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B222" t="n">
         <v>0.0</v>
@@ -77711,11 +78372,14 @@
       </c>
       <c r="DK222" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL222" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B223" t="n">
         <v>178.0</v>
@@ -78058,11 +78722,14 @@
       </c>
       <c r="DK223" t="n">
         <v>122.0</v>
+      </c>
+      <c r="DL223" t="n">
+        <v>208.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B224" t="n">
         <v>35.0</v>
@@ -78405,11 +79072,14 @@
       </c>
       <c r="DK224" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL224" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B225" t="n">
         <v>0.0</v>
@@ -78751,12 +79421,15 @@
         <v>0.0</v>
       </c>
       <c r="DK225" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL225" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B226" t="n">
         <v>0.0</v>
@@ -79098,12 +79771,15 @@
         <v>0.0</v>
       </c>
       <c r="DK226" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL226" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B227" t="n">
         <v>0.0</v>
@@ -79445,12 +80121,15 @@
         <v>0.0</v>
       </c>
       <c r="DK227" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL227" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B228" t="n">
         <v>0.0</v>
@@ -79792,12 +80471,15 @@
         <v>3.0</v>
       </c>
       <c r="DK228" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL228" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B229" t="n">
         <v>38.0</v>
@@ -80140,11 +80822,14 @@
       </c>
       <c r="DK229" t="n">
         <v>11.0</v>
+      </c>
+      <c r="DL229" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B230" t="n">
         <v>0.0</v>
@@ -80486,12 +81171,15 @@
         <v>0.0</v>
       </c>
       <c r="DK230" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL230" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B231" t="n">
         <v>0.0</v>
@@ -80834,11 +81522,14 @@
       </c>
       <c r="DK231" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL231" t="n">
+        <v>-1.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B232" t="n">
         <v>0.0</v>
@@ -81181,11 +81872,14 @@
       </c>
       <c r="DK232" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL232" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B233" t="n">
         <v>0.0</v>
@@ -81527,12 +82221,15 @@
         <v>2.0</v>
       </c>
       <c r="DK233" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL233" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B234" t="n">
         <v>0.0</v>
@@ -81874,12 +82571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK234" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL234" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B235" t="n">
         <v>0.0</v>
@@ -82222,11 +82922,14 @@
       </c>
       <c r="DK235" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL235" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B236" t="n">
         <v>0.0</v>
@@ -82568,12 +83271,15 @@
         <v>0.0</v>
       </c>
       <c r="DK236" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL236" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B237" t="n">
         <v>0.0</v>
@@ -82915,12 +83621,15 @@
         <v>1.0</v>
       </c>
       <c r="DK237" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL237" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B238" t="n">
         <v>0.0</v>
@@ -83262,12 +83971,15 @@
         <v>0.0</v>
       </c>
       <c r="DK238" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL238" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B239" t="n">
         <v>3.0</v>
@@ -83609,12 +84321,15 @@
         <v>2.0</v>
       </c>
       <c r="DK239" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL239" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B240" t="n">
         <v>0.0</v>
@@ -83956,12 +84671,15 @@
         <v>2.0</v>
       </c>
       <c r="DK240" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL240" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B241" t="n">
         <v>0.0</v>
@@ -84303,12 +85021,15 @@
         <v>1.0</v>
       </c>
       <c r="DK241" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL241" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B242" t="n">
         <v>0.0</v>
@@ -84651,11 +85372,14 @@
       </c>
       <c r="DK242" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL242" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B243" t="n">
         <v>0.0</v>
@@ -84997,12 +85721,15 @@
         <v>0.0</v>
       </c>
       <c r="DK243" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL243" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B244" t="n">
         <v>0.0</v>
@@ -85344,12 +86071,15 @@
         <v>0.0</v>
       </c>
       <c r="DK244" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL244" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B245" t="n">
         <v>0.0</v>
@@ -85691,12 +86421,15 @@
         <v>0.0</v>
       </c>
       <c r="DK245" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL245" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B246" t="n">
         <v>0.0</v>
@@ -86038,12 +86771,15 @@
         <v>0.0</v>
       </c>
       <c r="DK246" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL246" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B247" t="n">
         <v>0.0</v>
@@ -86385,12 +87121,15 @@
         <v>0.0</v>
       </c>
       <c r="DK247" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL247" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B248" t="n">
         <v>0.0</v>
@@ -86733,11 +87472,14 @@
       </c>
       <c r="DK248" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL248" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B249" t="n">
         <v>0.0</v>
@@ -87079,12 +87821,15 @@
         <v>0.0</v>
       </c>
       <c r="DK249" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL249" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B250" t="n">
         <v>0.0</v>
@@ -87427,11 +88172,14 @@
       </c>
       <c r="DK250" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL250" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B251" t="n">
         <v>0.0</v>
@@ -87774,11 +88522,14 @@
       </c>
       <c r="DK251" t="n">
         <v>-1.0</v>
+      </c>
+      <c r="DL251" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B252" t="n">
         <v>0.0</v>
@@ -88121,11 +88872,14 @@
       </c>
       <c r="DK252" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL252" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B253" t="n">
         <v>0.0</v>
@@ -88467,12 +89221,15 @@
         <v>2.0</v>
       </c>
       <c r="DK253" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL253" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B254" t="n">
         <v>0.0</v>
@@ -88814,12 +89571,15 @@
         <v>0.0</v>
       </c>
       <c r="DK254" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL254" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B255" t="n">
         <v>0.0</v>
@@ -89161,12 +89921,15 @@
         <v>0.0</v>
       </c>
       <c r="DK255" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL255" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B256" t="n">
         <v>0.0</v>
@@ -89508,12 +90271,15 @@
         <v>1.0</v>
       </c>
       <c r="DK256" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="DL256" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B257" t="n">
         <v>0.0</v>
@@ -89856,11 +90622,14 @@
       </c>
       <c r="DK257" t="n">
         <v>0.0</v>
+      </c>
+      <c r="DL257" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B258"/>
       <c r="C258"/>
@@ -89976,10 +90745,11 @@
       <c r="DI258"/>
       <c r="DJ258"/>
       <c r="DK258"/>
+      <c r="DL258"/>
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B259"/>
       <c r="C259"/>
@@ -90095,6 +90865,7 @@
       <c r="DI259"/>
       <c r="DJ259"/>
       <c r="DK259"/>
+      <c r="DL259"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
